--- a/stl/部品リスト.xlsx
+++ b/stl/部品リスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>min-Gear</t>
     <phoneticPr fontId="1"/>
@@ -156,6 +156,48 @@
     <t>zenmai1固定用</t>
     <rPh sb="7" eb="10">
       <t>コテイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペーサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冗談及び中断側取り付け（オス―メス）</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウダン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下段側取り付け（メス―メス）</t>
+    <rPh sb="0" eb="2">
+      <t>ゲダン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -255,7 +297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,11 +307,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -280,8 +319,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E23"/>
+  <dimension ref="C3:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:E23"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -737,10 +782,10 @@
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -748,21 +793,21 @@
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="3">
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -770,10 +815,10 @@
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="3">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -781,14 +826,36 @@
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
